--- a/data/trans_orig/P6707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>19599</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12322</v>
+        <v>12257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29365</v>
+        <v>29198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1078315612678405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06779257694791807</v>
+        <v>0.06743836776537085</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1615617183771094</v>
+        <v>0.1606403553419726</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -764,19 +764,19 @@
         <v>30715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20873</v>
+        <v>21382</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41982</v>
+        <v>41491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2308760396230092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1568946308599909</v>
+        <v>0.1607229445776434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3155614624451988</v>
+        <v>0.3118751668329058</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -785,19 +785,19 @@
         <v>50315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37646</v>
+        <v>37782</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64400</v>
+        <v>64549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1598323935440946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1195894173010071</v>
+        <v>0.1200210698801448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2045759063052326</v>
+        <v>0.2050505754162324</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>14859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9090</v>
+        <v>8961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23979</v>
+        <v>23948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08175013555687889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05001402549097653</v>
+        <v>0.04930396953844354</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1319272767897537</v>
+        <v>0.1317568465583231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -835,19 +835,19 @@
         <v>8560</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4197</v>
+        <v>4117</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16083</v>
+        <v>16254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06433906963338892</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03154449890755628</v>
+        <v>0.03094893802204794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.120891182998588</v>
+        <v>0.1221767984425162</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -856,19 +856,19 @@
         <v>23418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16123</v>
+        <v>15176</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36570</v>
+        <v>33560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07439190273781007</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05121789648936159</v>
+        <v>0.04820925919929815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1161707088592104</v>
+        <v>0.1066099101024885</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>46850</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34644</v>
+        <v>35926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58733</v>
+        <v>59922</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2577633868966542</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1906037635248718</v>
+        <v>0.1976607502949125</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3231428572174841</v>
+        <v>0.3296799012440206</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -906,19 +906,19 @@
         <v>20805</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13419</v>
+        <v>13424</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31125</v>
+        <v>30505</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1563840815097416</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.100862666346577</v>
+        <v>0.1009010636267687</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2339582226846303</v>
+        <v>0.2292953139355922</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -927,19 +927,19 @@
         <v>67656</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54335</v>
+        <v>54494</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84749</v>
+        <v>83730</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2149186503738915</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1726049513706171</v>
+        <v>0.1731082884366938</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2692175415413586</v>
+        <v>0.2659829959961394</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>29075</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19913</v>
+        <v>19649</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39657</v>
+        <v>38674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.159963607551774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1095586253049264</v>
+        <v>0.1081064486782038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2181882286125707</v>
+        <v>0.2127777679933598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -977,19 +977,19 @@
         <v>20636</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13032</v>
+        <v>13358</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30473</v>
+        <v>31481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1551103468228613</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09795558989967547</v>
+        <v>0.1004063315938012</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.229056179026218</v>
+        <v>0.2366297782476112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -998,19 +998,19 @@
         <v>49710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38797</v>
+        <v>38120</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65070</v>
+        <v>63363</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1579125313837834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1232458076407284</v>
+        <v>0.1210957550799434</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2067048586589698</v>
+        <v>0.201282464280313</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>71374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58754</v>
+        <v>58707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85329</v>
+        <v>85043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3926913087268524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3232535132875675</v>
+        <v>0.3229944470292463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4694689748142723</v>
+        <v>0.4678921213737847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -1048,19 +1048,19 @@
         <v>52323</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41707</v>
+        <v>41097</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64548</v>
+        <v>63993</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3932904624109989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3134983605972095</v>
+        <v>0.3089128499428491</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4851839897528024</v>
+        <v>0.4810126576034601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>118</v>
@@ -1069,19 +1069,19 @@
         <v>123697</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>105869</v>
+        <v>106316</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140974</v>
+        <v>140798</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3929445219604205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3363092591441479</v>
+        <v>0.3377302244464655</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4478265895373287</v>
+        <v>0.4472664898580795</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>163602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142526</v>
+        <v>140810</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>190471</v>
+        <v>188979</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1800401220010688</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1568468922726718</v>
+        <v>0.1549577433435003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2096093913049105</v>
+        <v>0.2079667257727846</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -1194,19 +1194,19 @@
         <v>109024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92036</v>
+        <v>91094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130179</v>
+        <v>130389</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1929870388702638</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1629157311462671</v>
+        <v>0.161247864875147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2304344777404631</v>
+        <v>0.2308063925833109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -1215,19 +1215,19 @@
         <v>272626</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>244094</v>
+        <v>243258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>306432</v>
+        <v>302581</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1850034574077011</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.165641857471985</v>
+        <v>0.1650740899011923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2079442144659264</v>
+        <v>0.2053307829528641</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>79919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63419</v>
+        <v>62257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98819</v>
+        <v>98148</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08794949329992317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06979166087239873</v>
+        <v>0.06851252914939154</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1087477932239059</v>
+        <v>0.1080101409617577</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -1265,19 +1265,19 @@
         <v>64847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50164</v>
+        <v>50693</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80592</v>
+        <v>80541</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1147881213205249</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08879641887232903</v>
+        <v>0.08973368786974921</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1426586316680008</v>
+        <v>0.1425679948675438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>136</v>
@@ -1286,19 +1286,19 @@
         <v>144767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>122430</v>
+        <v>125802</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>170316</v>
+        <v>170104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09823836084004264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08308065990862097</v>
+        <v>0.08536904729547948</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1155763776185949</v>
+        <v>0.1154323045481293</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>212520</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>188487</v>
+        <v>184818</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>239833</v>
+        <v>237505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2338729087600511</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2074251975201077</v>
+        <v>0.2033879056587587</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2639301210616335</v>
+        <v>0.2613690263421728</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>110</v>
@@ -1336,19 +1336,19 @@
         <v>119250</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>98650</v>
+        <v>100700</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>139162</v>
+        <v>139182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2110880706602462</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1746226662950374</v>
+        <v>0.1782530333348401</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2463349959867663</v>
+        <v>0.2463696690072452</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>317</v>
@@ -1357,19 +1357,19 @@
         <v>331770</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>299817</v>
+        <v>301978</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>363410</v>
+        <v>366593</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2251381038008703</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2034549308115575</v>
+        <v>0.2049218045963389</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2466089328345939</v>
+        <v>0.2487692538739702</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>181074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159339</v>
+        <v>157477</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207490</v>
+        <v>205950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1992673263451723</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1753485800888927</v>
+        <v>0.1732998817202166</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2283379168816023</v>
+        <v>0.2266431724422305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -1407,19 +1407,19 @@
         <v>113882</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94314</v>
+        <v>95382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133428</v>
+        <v>134604</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2015864784075568</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1669483073196948</v>
+        <v>0.1688386956306194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2361853242581074</v>
+        <v>0.2382660654872125</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -1428,19 +1428,19 @@
         <v>294956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266955</v>
+        <v>262988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>327753</v>
+        <v>324973</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2001563974391549</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1811550814991698</v>
+        <v>0.1784630466467949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2224121475790577</v>
+        <v>0.2205262018506529</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>271582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>241962</v>
+        <v>244049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301446</v>
+        <v>300271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2988701495937846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2662733799166085</v>
+        <v>0.2685704027709358</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3317339884088534</v>
+        <v>0.3304410188975739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -1478,19 +1478,19 @@
         <v>157926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137950</v>
+        <v>136279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>181741</v>
+        <v>178870</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2795502907414083</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2441895956637203</v>
+        <v>0.24123111197103</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3217050788054429</v>
+        <v>0.3166226253177253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>401</v>
@@ -1499,19 +1499,19 @@
         <v>429509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>394082</v>
+        <v>395163</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>466307</v>
+        <v>464437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.291463680512231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2674231627112178</v>
+        <v>0.2681567809210542</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3164349025657314</v>
+        <v>0.3151656925169045</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>32545</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22830</v>
+        <v>23192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47288</v>
+        <v>45848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1032355942546813</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07241972975235883</v>
+        <v>0.07356764156820045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1500037515609861</v>
+        <v>0.145435328114754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1624,19 +1624,19 @@
         <v>41108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28883</v>
+        <v>29641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53701</v>
+        <v>55638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.17571946337791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1234638589199684</v>
+        <v>0.1267032015213932</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.229548198198372</v>
+        <v>0.2378277381302489</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -1645,19 +1645,19 @@
         <v>73653</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57607</v>
+        <v>57473</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92544</v>
+        <v>92448</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1341121850148456</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1048948908208665</v>
+        <v>0.1046514360440423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1685112358016496</v>
+        <v>0.168335354866887</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>23985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14976</v>
+        <v>15183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35679</v>
+        <v>35852</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07608347264237235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04750633388508507</v>
+        <v>0.0481617752914817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1131784100866337</v>
+        <v>0.1137267862434453</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1695,19 +1695,19 @@
         <v>13571</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7455</v>
+        <v>8272</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21187</v>
+        <v>22876</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05801040233142222</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03186852508583968</v>
+        <v>0.03535924142564449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09056344856415828</v>
+        <v>0.09778539086378345</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1716,19 +1716,19 @@
         <v>37556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26118</v>
+        <v>26657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52774</v>
+        <v>52939</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06838472804552727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04755719685122051</v>
+        <v>0.04853840914914029</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09609403071552276</v>
+        <v>0.09639425841374383</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>55503</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42788</v>
+        <v>41818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>71625</v>
+        <v>70298</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1760642812489292</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1357297337957007</v>
+        <v>0.1326534804215712</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2272037567458535</v>
+        <v>0.2229956933980348</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -1766,19 +1766,19 @@
         <v>57843</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44894</v>
+        <v>45197</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70280</v>
+        <v>72081</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.247254400897515</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1919021464232182</v>
+        <v>0.1931970562084807</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3004183340575726</v>
+        <v>0.3081142116938298</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -1787,19 +1787,19 @@
         <v>113347</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>94721</v>
+        <v>92460</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>134008</v>
+        <v>135073</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2063897621751687</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1724740711832305</v>
+        <v>0.168357471030449</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2440114112699649</v>
+        <v>0.2459498896607624</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>87819</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71676</v>
+        <v>73078</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105636</v>
+        <v>106182</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.278573349822798</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2273664756863897</v>
+        <v>0.2318148621363023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3350913040475572</v>
+        <v>0.3368229285225911</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -1837,19 +1837,19 @@
         <v>48075</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35879</v>
+        <v>35910</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62421</v>
+        <v>63353</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2054977008328897</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1533657052519696</v>
+        <v>0.1535003964959071</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2668208448640181</v>
+        <v>0.2708071183592183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -1858,19 +1858,19 @@
         <v>135894</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112945</v>
+        <v>114729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157946</v>
+        <v>158823</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2474446733919239</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2056585591399024</v>
+        <v>0.2089071299370646</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2875986565047353</v>
+        <v>0.2891956778939479</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>115393</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>99143</v>
+        <v>99100</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135101</v>
+        <v>134819</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3660433020312192</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3144943290353707</v>
+        <v>0.3143592953027787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4285591470500961</v>
+        <v>0.4276650574591912</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -1908,19 +1908,19 @@
         <v>73345</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58905</v>
+        <v>59473</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89129</v>
+        <v>88434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3135180325602631</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2517917548471703</v>
+        <v>0.2542231607830827</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3809863478842453</v>
+        <v>0.3780153082309897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>167</v>
@@ -1929,19 +1929,19 @@
         <v>188739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>165884</v>
+        <v>165208</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215382</v>
+        <v>213387</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3436686513725345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3020532094765498</v>
+        <v>0.3008229009241095</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.392181889584307</v>
+        <v>0.3885494393020809</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>215746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>189665</v>
+        <v>186239</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>247198</v>
+        <v>244738</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1534791722826017</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1349258120185428</v>
+        <v>0.1324886596677497</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1758537159944762</v>
+        <v>0.1741037388337281</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>168</v>
@@ -2054,19 +2054,19 @@
         <v>180848</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>156756</v>
+        <v>155624</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>206485</v>
+        <v>210087</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1940612556119029</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1682094487440731</v>
+        <v>0.1669941234312502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2215715847839887</v>
+        <v>0.2254368501192664</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>362</v>
@@ -2075,19 +2075,19 @@
         <v>396593</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>357567</v>
+        <v>361658</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>435460</v>
+        <v>439847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1696576116069604</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1529624453417716</v>
+        <v>0.1547126033210237</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.186284210993548</v>
+        <v>0.1881607789581794</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>118763</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97223</v>
+        <v>97434</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142828</v>
+        <v>140358</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08448681310272464</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06916312726042308</v>
+        <v>0.06931338537168157</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1016061963204329</v>
+        <v>0.0998492822139251</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2125,19 +2125,19 @@
         <v>86978</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>69526</v>
+        <v>70709</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>107201</v>
+        <v>107156</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09333288082928773</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07460628572703817</v>
+        <v>0.07587534602956807</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1150337640836459</v>
+        <v>0.1149849056813146</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>194</v>
@@ -2146,19 +2146,19 @@
         <v>205741</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>178755</v>
+        <v>176030</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>234058</v>
+        <v>233407</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.088013383407459</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07646922143072549</v>
+        <v>0.07530321420633973</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1001271681970555</v>
+        <v>0.09984868859834124</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>314874</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>285987</v>
+        <v>284779</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>350142</v>
+        <v>344987</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2239976561732537</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2034479136538452</v>
+        <v>0.2025884299170972</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2490871256810879</v>
+        <v>0.2454200657267546</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>182</v>
@@ -2196,19 +2196,19 @@
         <v>197898</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>172740</v>
+        <v>173067</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>224386</v>
+        <v>225723</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2123576188261487</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1853611486532752</v>
+        <v>0.1857123128889029</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.24078016042668</v>
+        <v>0.2422152516653833</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>484</v>
@@ -2217,19 +2217,19 @@
         <v>512772</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>471510</v>
+        <v>470383</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>553905</v>
+        <v>555177</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2193572429045381</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2017057587785874</v>
+        <v>0.2012237703774206</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2369533312957866</v>
+        <v>0.2374977836722214</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>297967</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>264251</v>
+        <v>264938</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>334035</v>
+        <v>330559</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2119706989649387</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1879852807065106</v>
+        <v>0.1884738226055467</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2376290719934039</v>
+        <v>0.2351560395246212</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -2267,19 +2267,19 @@
         <v>182593</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>158604</v>
+        <v>158282</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>209149</v>
+        <v>209246</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1959334607874752</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1701923805454159</v>
+        <v>0.1698468647208423</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2244300260338124</v>
+        <v>0.2245338742521917</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>453</v>
@@ -2288,19 +2288,19 @@
         <v>480560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>438528</v>
+        <v>440886</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>522937</v>
+        <v>524243</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2055772991318393</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1875965311052268</v>
+        <v>0.1886053055408952</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2237057882734276</v>
+        <v>0.2242644863061215</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>458350</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>424600</v>
+        <v>423959</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>496642</v>
+        <v>495197</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3260656594764813</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3020562603873589</v>
+        <v>0.3015995874881306</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3533061016099892</v>
+        <v>0.3522779780954084</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>257</v>
@@ -2338,19 +2338,19 @@
         <v>283594</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>254804</v>
+        <v>254714</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>316385</v>
+        <v>311678</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3043147839451855</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2734214656846146</v>
+        <v>0.2733242522304244</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3395015926439673</v>
+        <v>0.3344501859558198</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>686</v>
@@ -2359,19 +2359,19 @@
         <v>741945</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>693364</v>
+        <v>693838</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>791256</v>
+        <v>789466</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3173944629492031</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2966121905450657</v>
+        <v>0.2968149314579131</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3384893116612551</v>
+        <v>0.3377233426997539</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>30332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20819</v>
+        <v>21352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41232</v>
+        <v>41264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2146677974501348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1473413229253325</v>
+        <v>0.1511146305275057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.291807988818891</v>
+        <v>0.2920297013598439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2723,19 +2723,19 @@
         <v>15572</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9648</v>
+        <v>9433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23172</v>
+        <v>23483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2252587061864081</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1395642591105094</v>
+        <v>0.1364574301838212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3352023285868733</v>
+        <v>0.339699877611437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2744,19 +2744,19 @@
         <v>45904</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35023</v>
+        <v>35616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59630</v>
+        <v>60149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.218147061373848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1664358385216058</v>
+        <v>0.1692547735817494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2833752286406809</v>
+        <v>0.2858438082412903</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>29166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20126</v>
+        <v>20636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40505</v>
+        <v>40592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2064151753878873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1424321084434452</v>
+        <v>0.1460481559352196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2866595641339298</v>
+        <v>0.2872738790972638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -2794,19 +2794,19 @@
         <v>13540</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8113</v>
+        <v>7496</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21075</v>
+        <v>20564</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1958641786857388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1173668393312816</v>
+        <v>0.1084299568793709</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3048689782042678</v>
+        <v>0.297476017904629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -2815,19 +2815,19 @@
         <v>42706</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32403</v>
+        <v>31574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56155</v>
+        <v>55908</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2029490231341838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1539861180385545</v>
+        <v>0.1500475675927204</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2668639484416254</v>
+        <v>0.265689408663186</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>31651</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22593</v>
+        <v>22421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41753</v>
+        <v>41985</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2239986342617862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1598946890562062</v>
+        <v>0.1586760073070702</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2954951235970301</v>
+        <v>0.2971351747623781</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -2865,19 +2865,19 @@
         <v>21034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13417</v>
+        <v>14234</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28771</v>
+        <v>29507</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3042731551299169</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1940900898271446</v>
+        <v>0.2059130044937863</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4162052589260493</v>
+        <v>0.4268431766002444</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -2886,19 +2886,19 @@
         <v>52685</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41002</v>
+        <v>41706</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65614</v>
+        <v>66885</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2503699543632687</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1948518049133963</v>
+        <v>0.1981948419530601</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3118126380620332</v>
+        <v>0.317854118910738</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>20388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12687</v>
+        <v>12862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29196</v>
+        <v>29726</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1442912929365435</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08979183585700021</v>
+        <v>0.09102752722953432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2066261911818839</v>
+        <v>0.2103743417655563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2936,19 +2936,19 @@
         <v>10588</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5745</v>
+        <v>5738</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17016</v>
+        <v>17141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1531710028749443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08310835562854006</v>
+        <v>0.08301120625175053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2461492127838023</v>
+        <v>0.2479617912617706</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2957,19 +2957,19 @@
         <v>30977</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22071</v>
+        <v>21557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42722</v>
+        <v>43073</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1472084037540413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1048860631721821</v>
+        <v>0.1024419202771474</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2030234989018311</v>
+        <v>0.2046952986831251</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>29761</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20877</v>
+        <v>20062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40455</v>
+        <v>40186</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2106270999636482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.147749070024946</v>
+        <v>0.1419800962528653</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2863086586511678</v>
+        <v>0.2844065614554101</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -3007,19 +3007,19 @@
         <v>8394</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4104</v>
+        <v>4121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15560</v>
+        <v>15408</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.121432957122992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05936703445313599</v>
+        <v>0.05961161993034123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2250923205246584</v>
+        <v>0.2228920493158058</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -3028,19 +3028,19 @@
         <v>38156</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27230</v>
+        <v>27730</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51902</v>
+        <v>50151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1813255573746581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1294036902289084</v>
+        <v>0.1317790851845378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2466531476405504</v>
+        <v>0.2383297670570272</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>184202</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162653</v>
+        <v>161083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210959</v>
+        <v>209637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1995253918107027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1761841545044776</v>
+        <v>0.1744833106922588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2285083541169018</v>
+        <v>0.2270765183192286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -3153,19 +3153,19 @@
         <v>128196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108515</v>
+        <v>109411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149672</v>
+        <v>150803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1970599583698057</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1668073339756048</v>
+        <v>0.1681843630071977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2300719333002778</v>
+        <v>0.2318109514999527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>292</v>
@@ -3174,19 +3174,19 @@
         <v>312398</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>280391</v>
+        <v>282552</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>343888</v>
+        <v>346110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1985062483824576</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1781679588059762</v>
+        <v>0.1795408823531747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2185158357666281</v>
+        <v>0.2199275129565179</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>139612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>119066</v>
+        <v>118888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>162527</v>
+        <v>163285</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1512265001212502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.128971083896585</v>
+        <v>0.1287775448122403</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1760469116531815</v>
+        <v>0.1768681851003629</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -3224,19 +3224,19 @@
         <v>88741</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72755</v>
+        <v>72774</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108593</v>
+        <v>106706</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1364100024338633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1118370366425515</v>
+        <v>0.1118660295031294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1669264090012005</v>
+        <v>0.1640255652671959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>221</v>
@@ -3245,19 +3245,19 @@
         <v>228353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>201040</v>
+        <v>201190</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>258495</v>
+        <v>258328</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1451017611616719</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1277464943399898</v>
+        <v>0.1278414061847485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1642548511252808</v>
+        <v>0.1641482885249443</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>245767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>218911</v>
+        <v>216994</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>274744</v>
+        <v>274362</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2662120986449537</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2371217456686063</v>
+        <v>0.2350451351008001</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2975990591490604</v>
+        <v>0.2971859997973843</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>184</v>
@@ -3295,19 +3295,19 @@
         <v>183222</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>160076</v>
+        <v>159736</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>204266</v>
+        <v>205961</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2816449202433257</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.246065251191853</v>
+        <v>0.2455423617711052</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3139926698841266</v>
+        <v>0.3165989676530288</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>411</v>
@@ -3316,19 +3316,19 @@
         <v>428990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>393802</v>
+        <v>394248</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>462380</v>
+        <v>463435</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2725916092212106</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2502325262529014</v>
+        <v>0.2505155466924414</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2938087458165933</v>
+        <v>0.2944792404384526</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>187245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163849</v>
+        <v>165251</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212030</v>
+        <v>214915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2028217638899374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1774796903120368</v>
+        <v>0.1789975010365889</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2296684998603685</v>
+        <v>0.2327929013662966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -3366,19 +3366,19 @@
         <v>144347</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122256</v>
+        <v>124875</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167157</v>
+        <v>167201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2218872736493555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1879288456919943</v>
+        <v>0.191954825013915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.256950261944645</v>
+        <v>0.2570181332090605</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>318</v>
@@ -3387,19 +3387,19 @@
         <v>331593</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>299835</v>
+        <v>298456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>364573</v>
+        <v>367243</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2107029293901442</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.190522928130104</v>
+        <v>0.1896467925891593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.231659545891173</v>
+        <v>0.2333560328268705</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>166374</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>144898</v>
+        <v>142882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>192942</v>
+        <v>192202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.180214245533156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1569519689110162</v>
+        <v>0.1547675290686585</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2089922338880442</v>
+        <v>0.2081906857501832</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -3437,19 +3437,19 @@
         <v>106037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88953</v>
+        <v>87921</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126929</v>
+        <v>127574</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1629978453036498</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1367368669573081</v>
+        <v>0.1351501941466297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1951128377284689</v>
+        <v>0.1961042150665152</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>257</v>
@@ -3458,19 +3458,19 @@
         <v>272411</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>243976</v>
+        <v>245153</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>303948</v>
+        <v>306660</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1730974518445157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1550290100259832</v>
+        <v>0.1557767698353363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1931364465826878</v>
+        <v>0.1948599821409528</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>46233</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34513</v>
+        <v>33655</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60560</v>
+        <v>59745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.132687763060061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09905175079628287</v>
+        <v>0.0965870822239186</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1738039895948063</v>
+        <v>0.1714663405453153</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -3583,19 +3583,19 @@
         <v>68161</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54804</v>
+        <v>53323</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85157</v>
+        <v>84257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2209779072334991</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1776731499363321</v>
+        <v>0.1728724924502918</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2760769560775308</v>
+        <v>0.2731600375037599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -3604,19 +3604,19 @@
         <v>114395</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96532</v>
+        <v>94811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135093</v>
+        <v>135297</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1741457310921654</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1469521297408881</v>
+        <v>0.1443328624985841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2056549768652739</v>
+        <v>0.2059657262375005</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>51571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40601</v>
+        <v>38655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68811</v>
+        <v>67145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.148006638710061</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1165221515354449</v>
+        <v>0.1109393715930238</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1974850359531276</v>
+        <v>0.1927029873507541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -3654,19 +3654,19 @@
         <v>41278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30245</v>
+        <v>30447</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54440</v>
+        <v>54225</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1338222054460606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0980523537153688</v>
+        <v>0.09870871153345537</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1764931040047745</v>
+        <v>0.1757951726045121</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -3675,19 +3675,19 @@
         <v>92849</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75489</v>
+        <v>76130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111853</v>
+        <v>114221</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1413461242628622</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1149191793548874</v>
+        <v>0.1158948363677618</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1702764153534023</v>
+        <v>0.1738811016202204</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>103405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84809</v>
+        <v>84434</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>120261</v>
+        <v>121332</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2967666209839208</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2433990534564557</v>
+        <v>0.242320400886106</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3451435868805398</v>
+        <v>0.3482171458533622</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -3725,19 +3725,19 @@
         <v>67423</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54772</v>
+        <v>53881</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84008</v>
+        <v>81848</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2185844289537527</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1775714071695631</v>
+        <v>0.1746812821490938</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2723513081901245</v>
+        <v>0.265350718642564</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -3746,19 +3746,19 @@
         <v>170828</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>148990</v>
+        <v>148431</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>194363</v>
+        <v>194132</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2600549942422161</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2268110451757671</v>
+        <v>0.2259602523146336</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2958824775034437</v>
+        <v>0.2955312556965061</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>73771</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58386</v>
+        <v>60814</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89689</v>
+        <v>90227</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.21171904933027</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1675652306255084</v>
+        <v>0.174533660226982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2574035519659623</v>
+        <v>0.258947960989529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -3796,19 +3796,19 @@
         <v>63895</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51319</v>
+        <v>50129</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78743</v>
+        <v>78373</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2071463887961538</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1663743250413503</v>
+        <v>0.1625176308326613</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2552844293872232</v>
+        <v>0.25408468091866</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -3817,19 +3817,19 @@
         <v>137666</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>119526</v>
+        <v>118738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159756</v>
+        <v>161877</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.209571887650789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1819567458803533</v>
+        <v>0.1807570013184695</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2432000697616856</v>
+        <v>0.2464291771297947</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>73458</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58908</v>
+        <v>60432</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90097</v>
+        <v>92120</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2108199279156872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.169061860449325</v>
+        <v>0.1734374964083963</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2585745081976182</v>
+        <v>0.2643796084316294</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -3867,19 +3867,19 @@
         <v>67696</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54008</v>
+        <v>54260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84703</v>
+        <v>82868</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2194690695705338</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1750938610486388</v>
+        <v>0.1759084887839462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2746045542217513</v>
+        <v>0.2686562719719973</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -3888,19 +3888,19 @@
         <v>141154</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>120434</v>
+        <v>120007</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161763</v>
+        <v>163248</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2148812627519673</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1833386981647532</v>
+        <v>0.1826896245950147</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2462556160386114</v>
+        <v>0.2485154680015725</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>260768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>231809</v>
+        <v>231893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>294435</v>
+        <v>296610</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1845571695291214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1640616410212276</v>
+        <v>0.1641210597822457</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2083850505526754</v>
+        <v>0.2099244151646496</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>204</v>
@@ -4013,19 +4013,19 @@
         <v>211929</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186677</v>
+        <v>185953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>240130</v>
+        <v>237552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2061317154339309</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1815700986778294</v>
+        <v>0.1808664780211679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2335606605118752</v>
+        <v>0.2310533931789982</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>444</v>
@@ -4034,19 +4034,19 @@
         <v>472697</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>431808</v>
+        <v>433607</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>512165</v>
+        <v>513158</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1936439190304644</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1768933563390235</v>
+        <v>0.1776304662652317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2098122765538122</v>
+        <v>0.2102191646470826</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>220350</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>193686</v>
+        <v>193955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250355</v>
+        <v>249585</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1559515281103281</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1370806267715196</v>
+        <v>0.1372705856927013</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1771876191064392</v>
+        <v>0.1766422788986592</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>140</v>
@@ -4084,19 +4084,19 @@
         <v>143558</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>121798</v>
+        <v>122068</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>166659</v>
+        <v>167168</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1396311591414683</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1184664229718556</v>
+        <v>0.1187287547876583</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1620996107800678</v>
+        <v>0.1625953994503889</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>347</v>
@@ -4105,19 +4105,19 @@
         <v>363908</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>331894</v>
+        <v>329129</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>399358</v>
+        <v>403365</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1490777285298484</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1359627261192733</v>
+        <v>0.1348301949520583</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1635999010651423</v>
+        <v>0.1652416061205838</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>380823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>348977</v>
+        <v>344793</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>419560</v>
+        <v>414283</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2695255111901211</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2469868261180659</v>
+        <v>0.244025688093091</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2969414168793545</v>
+        <v>0.2932068117628516</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>272</v>
@@ -4155,19 +4155,19 @@
         <v>271679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>243814</v>
+        <v>242394</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>301986</v>
+        <v>299999</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.26424726794598</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2371446710229575</v>
+        <v>0.2357636243155806</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2937247748403746</v>
+        <v>0.2917921196962125</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>622</v>
@@ -4176,19 +4176,19 @@
         <v>652502</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>610801</v>
+        <v>608512</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>702533</v>
+        <v>699474</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2673024250413659</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.250219310152282</v>
+        <v>0.2492816567918216</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2877979470405232</v>
+        <v>0.2865449789646019</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>281404</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>251809</v>
+        <v>253494</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>309343</v>
+        <v>313842</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1991626276048493</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1782163007154837</v>
+        <v>0.1794094173338798</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2189358522763366</v>
+        <v>0.2221203871346256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>214</v>
@@ -4226,19 +4226,19 @@
         <v>218831</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>194416</v>
+        <v>195094</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>247036</v>
+        <v>245747</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2128444893671859</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.189097944331746</v>
+        <v>0.1897570354470515</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2402785510467036</v>
+        <v>0.2390249215174649</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>482</v>
@@ -4247,19 +4247,19 @@
         <v>500235</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>459340</v>
+        <v>456755</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>538816</v>
+        <v>540837</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2049251428899864</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1881722387549884</v>
+        <v>0.1871130231478998</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2207301315306259</v>
+        <v>0.2215578366370079</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>269593</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>238789</v>
+        <v>240631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>299208</v>
+        <v>299331</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.19080316356558</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1690018169879496</v>
+        <v>0.170305608910668</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2117631847879879</v>
+        <v>0.2118502844650079</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>174</v>
@@ -4297,19 +4297,19 @@
         <v>182128</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>157095</v>
+        <v>159069</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>206524</v>
+        <v>207821</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1771453681114349</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1527979040015751</v>
+        <v>0.1547174575481633</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.200874110290146</v>
+        <v>0.2021361314208067</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>423</v>
@@ -4318,19 +4318,19 @@
         <v>451721</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>413163</v>
+        <v>414479</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>494940</v>
+        <v>493817</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.185050784508335</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1692553899966065</v>
+        <v>0.169794636303286</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2027559124686703</v>
+        <v>0.2022959918878852</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>12984</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6443</v>
+        <v>5939</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22535</v>
+        <v>22491</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3176482594302784</v>
+        <v>0.3176482594302785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1576305157877159</v>
+        <v>0.1453018198622345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.551297898136707</v>
+        <v>0.5502175611366455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4682,19 +4682,19 @@
         <v>7656</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4488</v>
+        <v>4006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12185</v>
+        <v>12090</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3387780001431956</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1985973925202689</v>
+        <v>0.1772737691444793</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5391434884310928</v>
+        <v>0.5349375564782459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4703,19 +4703,19 @@
         <v>20641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12415</v>
+        <v>12162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30801</v>
+        <v>30837</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3251711823675745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1955919107097485</v>
+        <v>0.1915928722515844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4852399746029406</v>
+        <v>0.4858041110936526</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>7244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2400</v>
+        <v>2640</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15541</v>
+        <v>14664</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1772181304528389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05872437048509353</v>
+        <v>0.06457821127010002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3801871377571147</v>
+        <v>0.3587488024150113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4753,19 +4753,19 @@
         <v>3513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7584</v>
+        <v>8194</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1554552025759668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03888053183165417</v>
+        <v>0.03783515233228466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3355631049501328</v>
+        <v>0.3625716795864504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -4774,19 +4774,19 @@
         <v>10757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5290</v>
+        <v>5576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18525</v>
+        <v>19524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1694697708524035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08333872787646024</v>
+        <v>0.08784959414204563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2918399416866129</v>
+        <v>0.3075758932969082</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>8356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3469</v>
+        <v>3566</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15335</v>
+        <v>16081</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2044113041786511</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08487176024134586</v>
+        <v>0.08723191080325361</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3751683975274256</v>
+        <v>0.3934006133740421</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4824,19 +4824,19 @@
         <v>7518</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4479</v>
+        <v>4338</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12059</v>
+        <v>11762</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3326644910253931</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.198199486608062</v>
+        <v>0.191938137229766</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5335902266223777</v>
+        <v>0.5204620873109083</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -4845,19 +4845,19 @@
         <v>15874</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9542</v>
+        <v>9807</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23854</v>
+        <v>24281</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2500739014731293</v>
+        <v>0.2500739014731292</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1503301608537749</v>
+        <v>0.1544941056393362</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3758023756738418</v>
+        <v>0.3825253406123248</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>5544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1970</v>
+        <v>2087</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11039</v>
+        <v>10822</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1356392871587577</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04818612618100071</v>
+        <v>0.051067408081522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2700568576368661</v>
+        <v>0.264743729033911</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4895,19 +4895,19 @@
         <v>1818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5150</v>
+        <v>4796</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08046328758375418</v>
+        <v>0.08046328758375419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02230542595584573</v>
+        <v>0.02171396914613754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2278597345219827</v>
+        <v>0.2122063820360849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -4916,19 +4916,19 @@
         <v>7363</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3676</v>
+        <v>3517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12806</v>
+        <v>12964</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1159947113719247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05791400070509566</v>
+        <v>0.05540087665256778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2017529954250364</v>
+        <v>0.2042418352451682</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>6748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2623</v>
+        <v>2682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14161</v>
+        <v>13859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.165083018779474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06417966578625635</v>
+        <v>0.06560270876973295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3464406024686937</v>
+        <v>0.339045412068949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4966,19 +4966,19 @@
         <v>2094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5339</v>
+        <v>5632</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09263901867169011</v>
+        <v>0.09263901867169014</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02553821121147234</v>
+        <v>0.02594210113501318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2362374690919213</v>
+        <v>0.2492227555084938</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -4987,19 +4987,19 @@
         <v>8842</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3873</v>
+        <v>4078</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15450</v>
+        <v>16522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1392904339349681</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0610224409295778</v>
+        <v>0.06425226852238516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2434026093042377</v>
+        <v>0.2602852549653551</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>77632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61305</v>
+        <v>58953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96744</v>
+        <v>97672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2628899243943285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2075999852075139</v>
+        <v>0.1996351456430393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3276101428918058</v>
+        <v>0.3307520786397435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -5112,19 +5112,19 @@
         <v>96031</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82699</v>
+        <v>82365</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111440</v>
+        <v>110961</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3841236247896087</v>
+        <v>0.3841236247896086</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3307945669195674</v>
+        <v>0.3294594296016638</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4457611506248308</v>
+        <v>0.4438435779912997</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -5133,19 +5133,19 @@
         <v>173663</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151892</v>
+        <v>150726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197256</v>
+        <v>197587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.31847094627567</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2785458951765769</v>
+        <v>0.2764089464851798</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.361736631960285</v>
+        <v>0.3623436445766046</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>33999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22923</v>
+        <v>24052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47820</v>
+        <v>48551</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1151345526914207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07762722416290083</v>
+        <v>0.08144856860235782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1619366588425117</v>
+        <v>0.1644102416138588</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -5183,19 +5183,19 @@
         <v>37823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28246</v>
+        <v>27790</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48728</v>
+        <v>47867</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1512909106287198</v>
+        <v>0.1512909106287197</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1129856535376996</v>
+        <v>0.1111580398107825</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1949113498296996</v>
+        <v>0.1914672348512066</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -5204,19 +5204,19 @@
         <v>71822</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>56830</v>
+        <v>55012</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92006</v>
+        <v>90931</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1317108620436086</v>
+        <v>0.1317108620436087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.104217904936166</v>
+        <v>0.1008834282911955</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1687253247222191</v>
+        <v>0.1667527359671618</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>83795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68482</v>
+        <v>65721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100853</v>
+        <v>101069</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2837601866633279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2319044706810038</v>
+        <v>0.2225563765512803</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3415248661440908</v>
+        <v>0.3422552540137808</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -5254,19 +5254,19 @@
         <v>50500</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39301</v>
+        <v>40325</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62094</v>
+        <v>63464</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2020013313695593</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1572028643027416</v>
+        <v>0.1612985142601712</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2483758084129799</v>
+        <v>0.2538567248401313</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>147</v>
@@ -5275,19 +5275,19 @@
         <v>134295</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>116457</v>
+        <v>114348</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154288</v>
+        <v>156904</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2462768737704607</v>
+        <v>0.2462768737704608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2135633915677464</v>
+        <v>0.2096964240164559</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2829406531526146</v>
+        <v>0.287737730882929</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>49482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36548</v>
+        <v>36633</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65050</v>
+        <v>64928</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1675650603908499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1237647176176719</v>
+        <v>0.1240528936573207</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2202814589041234</v>
+        <v>0.2198705154746405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -5325,19 +5325,19 @@
         <v>32443</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24457</v>
+        <v>24576</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43078</v>
+        <v>42628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1297709156435679</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09782766642431932</v>
+        <v>0.09830329775208392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1723107830940301</v>
+        <v>0.170511094138739</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -5346,19 +5346,19 @@
         <v>81925</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65798</v>
+        <v>66319</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99932</v>
+        <v>99484</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1502378883311323</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1206629864979095</v>
+        <v>0.1216187443569797</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1832594847287442</v>
+        <v>0.1824385553506707</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>50393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37562</v>
+        <v>37097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68610</v>
+        <v>67380</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1706502758600732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1271976440029579</v>
+        <v>0.125625082329759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2323396142764294</v>
+        <v>0.2281731265234803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -5396,19 +5396,19 @@
         <v>33203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23806</v>
+        <v>24254</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45805</v>
+        <v>45351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1328132175685444</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09522468286943754</v>
+        <v>0.09701495200087408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.183221971359219</v>
+        <v>0.1814022884009636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -5417,19 +5417,19 @@
         <v>83597</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66686</v>
+        <v>66587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>103612</v>
+        <v>102832</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1533034295791283</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1222919637591146</v>
+        <v>0.1221107154239741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1900077171716883</v>
+        <v>0.1885778836339904</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>29268</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19206</v>
+        <v>19889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42244</v>
+        <v>40489</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2119485149404763</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1390864697599558</v>
+        <v>0.1440299575368011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.305919233936796</v>
+        <v>0.2932083777296676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -5542,19 +5542,19 @@
         <v>25890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18249</v>
+        <v>18519</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35173</v>
+        <v>35063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2255744159112939</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1590001653873429</v>
+        <v>0.1613540988623599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3064503418420754</v>
+        <v>0.3054947748372036</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -5563,19 +5563,19 @@
         <v>55158</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42283</v>
+        <v>41991</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68667</v>
+        <v>70994</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2181333107996839</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1672166497103658</v>
+        <v>0.1660648224181832</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2715598081549788</v>
+        <v>0.280760257361846</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>11180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5551</v>
+        <v>5691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21029</v>
+        <v>19888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08096620235258602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04019873495879028</v>
+        <v>0.04121628208755111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1522863400275861</v>
+        <v>0.1440265852641287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -5613,19 +5613,19 @@
         <v>11627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6759</v>
+        <v>6925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18671</v>
+        <v>19479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1013071341805103</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05888589544186792</v>
+        <v>0.06033310076195963</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1626791025660889</v>
+        <v>0.1697177581517993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -5634,19 +5634,19 @@
         <v>22808</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14859</v>
+        <v>14575</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34785</v>
+        <v>32671</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09019895042636134</v>
+        <v>0.09019895042636135</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05876205039354553</v>
+        <v>0.0576403106223153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1375647431780908</v>
+        <v>0.1292036958393104</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>31507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21572</v>
+        <v>21948</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44681</v>
+        <v>43280</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2281692055774544</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1562172110088061</v>
+        <v>0.1589419340567882</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3235660918014419</v>
+        <v>0.3134259376427472</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -5684,19 +5684,19 @@
         <v>25979</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19023</v>
+        <v>18780</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35937</v>
+        <v>35426</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2263525664895712</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1657449585151583</v>
+        <v>0.163628601396098</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3131073948469141</v>
+        <v>0.3086590882618781</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -5705,19 +5705,19 @@
         <v>57487</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45186</v>
+        <v>44899</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>71983</v>
+        <v>72694</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2273446331743174</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1786997496357119</v>
+        <v>0.1775645782964324</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2846713222217271</v>
+        <v>0.2874849402695743</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>25144</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16019</v>
+        <v>16125</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35996</v>
+        <v>35914</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1820846128724915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1160051028122645</v>
+        <v>0.1167743044802595</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2606757955323272</v>
+        <v>0.2600814355760065</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -5755,19 +5755,19 @@
         <v>24370</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17625</v>
+        <v>16767</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33146</v>
+        <v>33686</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2123345191703456</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1535601636830294</v>
+        <v>0.1460877860986838</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2887974248252456</v>
+        <v>0.2935024041071181</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -5776,19 +5776,19 @@
         <v>49514</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38795</v>
+        <v>37763</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62451</v>
+        <v>62502</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1958150440280585</v>
+        <v>0.1958150440280586</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1534252714301363</v>
+        <v>0.1493418808204822</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.246975262958687</v>
+        <v>0.2471774399144086</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>40989</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28936</v>
+        <v>28860</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57327</v>
+        <v>54827</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2968314642569918</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2095470929878255</v>
+        <v>0.2089937559166726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4151518693555644</v>
+        <v>0.3970452169041319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -5826,19 +5826,19 @@
         <v>26907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19079</v>
+        <v>19251</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35842</v>
+        <v>36306</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2344313642482788</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1662276451568185</v>
+        <v>0.1677337301347664</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3122818259598666</v>
+        <v>0.3163225523484277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -5847,19 +5847,19 @@
         <v>67895</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53983</v>
+        <v>53668</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86012</v>
+        <v>86173</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2685080615715789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2134881753306527</v>
+        <v>0.2122438061233732</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3401535160482204</v>
+        <v>0.3407913824562266</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>119884</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96911</v>
+        <v>99337</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142545</v>
+        <v>145348</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2527772859044661</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2043385820002122</v>
+        <v>0.2094551989163886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3005586476548586</v>
+        <v>0.3064700399207176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -5972,19 +5972,19 @@
         <v>129577</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113136</v>
+        <v>113669</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147616</v>
+        <v>148262</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3345020436434823</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2920583941059871</v>
+        <v>0.293434238427237</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3810678471551249</v>
+        <v>0.382737030587791</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>244</v>
@@ -5993,19 +5993,19 @@
         <v>249461</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>222703</v>
+        <v>221694</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>278484</v>
+        <v>279360</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2895188928314246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2584649182588223</v>
+        <v>0.2572928049255994</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3232026422766459</v>
+        <v>0.324219249428031</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>52424</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35670</v>
+        <v>38490</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>69248</v>
+        <v>69599</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1105369238269975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07521143012420101</v>
+        <v>0.08115659708836692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1460107511314385</v>
+        <v>0.1467509376949797</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>65</v>
@@ -6043,19 +6043,19 @@
         <v>52963</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>42270</v>
+        <v>41983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>66561</v>
+        <v>68185</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1367243032204613</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1091196700881897</v>
+        <v>0.108377354771574</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1718256967261287</v>
+        <v>0.1760190605933199</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>105</v>
@@ -6064,19 +6064,19 @@
         <v>105387</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>85408</v>
+        <v>86051</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>124681</v>
+        <v>126957</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.122310178673398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09912219124775534</v>
+        <v>0.09986940593878785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1447024000483496</v>
+        <v>0.1473433927298027</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>123658</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>102661</v>
+        <v>103645</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>147492</v>
+        <v>146710</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2607353330546953</v>
+        <v>0.2607353330546952</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2164635624554289</v>
+        <v>0.2185382438343332</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3109906676949892</v>
+        <v>0.309342013098029</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>119</v>
@@ -6114,19 +6114,19 @@
         <v>83998</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>69903</v>
+        <v>69465</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99385</v>
+        <v>99145</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2168392226756567</v>
+        <v>0.2168392226756568</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1804546567216216</v>
+        <v>0.1793223231054578</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2565603112485049</v>
+        <v>0.2559423604974018</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>229</v>
@@ -6135,19 +6135,19 @@
         <v>207656</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>184488</v>
+        <v>182323</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>236055</v>
+        <v>234539</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2410006323619205</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2141129093200988</v>
+        <v>0.2115996952103112</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2739603609292606</v>
+        <v>0.2722009062028637</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>80170</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63120</v>
+        <v>62247</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99459</v>
+        <v>98137</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1690409677440166</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1330900963118786</v>
+        <v>0.1312496718840667</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2097106629757305</v>
+        <v>0.2069236242039463</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>82</v>
@@ -6185,19 +6185,19 @@
         <v>58632</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45492</v>
+        <v>46962</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72393</v>
+        <v>70697</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1513568319363025</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1174373320013953</v>
+        <v>0.1212317495694012</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1868825213642672</v>
+        <v>0.1825028475188277</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>156</v>
@@ -6206,19 +6206,19 @@
         <v>138802</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117053</v>
+        <v>118146</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161011</v>
+        <v>162703</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1610905793346082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.135849696669566</v>
+        <v>0.1371180416991207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1868657771010029</v>
+        <v>0.1888296962376945</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>98130</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>78078</v>
+        <v>77016</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122908</v>
+        <v>122789</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2069094894698246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1646294194887121</v>
+        <v>0.1623908552460836</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2591534633237877</v>
+        <v>0.2589030824836672</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>77</v>
@@ -6256,19 +6256,19 @@
         <v>62204</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50149</v>
+        <v>50628</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>76303</v>
+        <v>78621</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1605775985240971</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1294580440235064</v>
+        <v>0.1306950431323516</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1969737579401272</v>
+        <v>0.2029591367349985</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>151</v>
@@ -6277,19 +6277,19 @@
         <v>160334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>137069</v>
+        <v>136526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>186155</v>
+        <v>188855</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1860797167986488</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1590793768322179</v>
+        <v>0.1584487812314383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2160480034881344</v>
+        <v>0.2191815808604786</v>
       </c>
     </row>
     <row r="27">
